--- a/biology/Zoologie/Corbulidae/Corbulidae.xlsx
+++ b/biology/Zoologie/Corbulidae/Corbulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corbulidae (corbulidés en français) forment une famille de mollusques bivalves. Parmi les genres fossiles, les plus anciens remontent au Trias.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 octobre 2019)[1], il y a 14 genres :  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 octobre 2019), il y a 14 genres :  
 Anisocorbula Iredale, 1930
 Apachecorbula P. G. Oliver &amp; Vestheim, 2015
 Caestocorbula Vincent, 1910 †
@@ -528,7 +542,7 @@
 Potamocorbula Habe, 1955
 Tenuicorbula Olsson, 1932
 Varicorbula Grant &amp; Gale, 1931
-Selon BioLib                    (20 octobre 2019)[2], il y a six sous-familles :  
+Selon BioLib                    (20 octobre 2019), il y a six sous-familles :  
 Caestocorbulinae H. Vokes, 1945 †
 Caryocorbulinae H. Vokes, 1945
 Corbulinae Lamarck, 1818
@@ -537,7 +551,7 @@
 Pachydontinae H. Vokes, 1945 †
 et un genre non classé :  
 Panamicorbula Pilsbry, 1932
-Selon Paleobiology Database                   (20 octobre 2019)[3], il y a 8 sous-familles :
+Selon Paleobiology Database                   (20 octobre 2019), il y a 8 sous-familles :
 Caestocorbulinae - Caryocorbulinae - Corbulamellinae - Corbulinae - Erodoninae - Lentidiinae - Lentidinae - Pachydontinae
 et 23 genres non classés:
 Aloides - Anticorbula - Antiquicorbula - Bicorbula - Bothrocorbula - Caryocorbula - Concentricavalva - Corbula - Cuneocorbula - Cuspicorbula - Eoursivivas - Erodona - Exallocorbula - Ficusocorbula - Hexacorbula - Indocorbula - Juliacorbula - Lhasanella - Nipponicorbula - Ostomya - Pachyrotunda - Panamicorbula - Pulsidis
